--- a/teaching/traditional_assets/database/data/taiwan/taiwan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_bank_money_center.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0338</v>
+        <v>0.0328</v>
       </c>
       <c r="E2">
-        <v>0.0139</v>
+        <v>0.0262</v>
+      </c>
+      <c r="F2">
+        <v>-0.0349</v>
       </c>
       <c r="G2">
-        <v>0.0651524165675109</v>
+        <v>0.1055294944508916</v>
       </c>
       <c r="H2">
-        <v>0.0651524165675109</v>
+        <v>0.1055294944508916</v>
       </c>
       <c r="I2">
-        <v>0.08871723385117737</v>
+        <v>0.1267384700510205</v>
       </c>
       <c r="J2">
-        <v>0.07429784783044235</v>
+        <v>0.1071472473639075</v>
       </c>
       <c r="K2">
-        <v>6917.7</v>
+        <v>6819.8</v>
       </c>
       <c r="L2">
-        <v>0.2449749277579466</v>
+        <v>0.2229384939768883</v>
       </c>
       <c r="M2">
-        <v>3681.2</v>
+        <v>4361.88</v>
       </c>
       <c r="N2">
-        <v>0.03586578876090968</v>
+        <v>0.04349579389486532</v>
       </c>
       <c r="O2">
-        <v>0.5321421859866718</v>
+        <v>0.6395906038300243</v>
       </c>
       <c r="P2">
-        <v>3661</v>
+        <v>4002.86</v>
       </c>
       <c r="Q2">
-        <v>0.03566898094471649</v>
+        <v>0.03991571834851041</v>
       </c>
       <c r="R2">
-        <v>0.5292221403067494</v>
+        <v>0.5869468312853749</v>
       </c>
       <c r="S2">
-        <v>20.2</v>
+        <v>359.0199999999999</v>
       </c>
       <c r="T2">
-        <v>0.00548734108442899</v>
+        <v>0.08230854585637384</v>
       </c>
       <c r="U2">
-        <v>34109</v>
+        <v>38346</v>
       </c>
       <c r="V2">
-        <v>0.3323226634917604</v>
+        <v>0.382378633225239</v>
       </c>
       <c r="W2">
-        <v>0.08510490963229694</v>
+        <v>0.08460976678514046</v>
       </c>
       <c r="X2">
-        <v>0.06634901605928169</v>
+        <v>0.06094892061552741</v>
       </c>
       <c r="Y2">
-        <v>0.01875589357301526</v>
+        <v>0.02366084616961305</v>
       </c>
       <c r="Z2">
-        <v>0.1842732935449186</v>
+        <v>0.1827653762816207</v>
       </c>
       <c r="AA2">
-        <v>0.0008209097122912787</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04535000943818432</v>
+        <v>0.03960259522563417</v>
       </c>
       <c r="AC2">
-        <v>-0.04404713656644936</v>
+        <v>-0.03855905472036368</v>
       </c>
       <c r="AD2">
-        <v>117067.5</v>
+        <v>134203.2</v>
       </c>
       <c r="AE2">
-        <v>780.9863180845645</v>
+        <v>116.5341595212819</v>
       </c>
       <c r="AF2">
-        <v>117848.4863180846</v>
+        <v>134319.7341595213</v>
       </c>
       <c r="AG2">
-        <v>83739.48631808457</v>
+        <v>95973.73415952129</v>
       </c>
       <c r="AH2">
-        <v>0.5344925278076461</v>
+        <v>0.5725417018223201</v>
       </c>
       <c r="AI2">
-        <v>0.5909832130734425</v>
+        <v>0.6004701740113146</v>
       </c>
       <c r="AJ2">
-        <v>0.4492999563003974</v>
+        <v>0.4890218538227721</v>
       </c>
       <c r="AK2">
-        <v>0.5065851829237306</v>
+        <v>0.5178114772585007</v>
       </c>
       <c r="AL2">
-        <v>995.1</v>
+        <v>829.3</v>
       </c>
       <c r="AM2">
-        <v>995.1</v>
+        <v>829.3</v>
       </c>
       <c r="AN2">
-        <v>42.46607393542349</v>
+        <v>33.60372586824248</v>
       </c>
       <c r="AO2">
-        <v>2.399859310622048</v>
+        <v>4.629205353912939</v>
       </c>
       <c r="AP2">
-        <v>30.37638300380689</v>
+        <v>24.03128281030655</v>
       </c>
       <c r="AQ2">
-        <v>2.399859310622048</v>
+        <v>4.629205353912939</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.133</v>
+        <v>0.126</v>
       </c>
       <c r="E3">
-        <v>0.0118</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="G3">
-        <v>0.141977404617854</v>
+        <v>0.2208614980432938</v>
       </c>
       <c r="H3">
-        <v>0.141977404617854</v>
+        <v>0.2208614980432938</v>
       </c>
       <c r="I3">
-        <v>0.1860327755277897</v>
+        <v>0.2626501737774007</v>
       </c>
       <c r="J3">
-        <v>0.1510458117549337</v>
+        <v>0.219258636248531</v>
       </c>
       <c r="K3">
-        <v>1382.7</v>
+        <v>1410.2</v>
       </c>
       <c r="L3">
-        <v>0.1067029880232127</v>
+        <v>0.09648066555376153</v>
       </c>
       <c r="M3">
-        <v>627.5</v>
+        <v>1018.1</v>
       </c>
       <c r="N3">
-        <v>0.04298210163640225</v>
+        <v>0.07446551736748561</v>
       </c>
       <c r="O3">
-        <v>0.4538222318651913</v>
+        <v>0.7219543327187632</v>
       </c>
       <c r="P3">
-        <v>627.5</v>
+        <v>673.4</v>
       </c>
       <c r="Q3">
-        <v>0.04298210163640225</v>
+        <v>0.04925358942664258</v>
       </c>
       <c r="R3">
-        <v>0.4538222318651913</v>
+        <v>0.4775209190185789</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>344.6999999999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.3385718495236224</v>
       </c>
       <c r="U3">
-        <v>11517.7</v>
+        <v>13781.8</v>
       </c>
       <c r="V3">
-        <v>0.7889321944503429</v>
+        <v>1.008023639382392</v>
       </c>
       <c r="W3">
-        <v>0.1336058207960112</v>
+        <v>0.1179205445316877</v>
       </c>
       <c r="X3">
-        <v>0.05887358012352689</v>
+        <v>0.05372302482514124</v>
       </c>
       <c r="Y3">
-        <v>0.07473224067248435</v>
+        <v>0.06419751970654647</v>
       </c>
       <c r="Z3">
-        <v>1.340066979902722</v>
+        <v>1.146249460847743</v>
       </c>
       <c r="AA3">
-        <v>0.202411504785389</v>
+        <v>0.2513250935860901</v>
       </c>
       <c r="AB3">
-        <v>0.0462440976162698</v>
+        <v>0.04004161166748946</v>
       </c>
       <c r="AC3">
-        <v>0.1561674071691192</v>
+        <v>0.2112834819186007</v>
       </c>
       <c r="AD3">
-        <v>12729.2</v>
+        <v>12765.5</v>
       </c>
       <c r="AE3">
-        <v>109.5644080034524</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12838.76440800345</v>
+        <v>12765.5</v>
       </c>
       <c r="AG3">
-        <v>1321.064408003453</v>
+        <v>-1016.299999999999</v>
       </c>
       <c r="AH3">
-        <v>0.4679214175378192</v>
+        <v>0.4828539655641965</v>
       </c>
       <c r="AI3">
-        <v>0.51434751854505</v>
+        <v>0.49811531317798</v>
       </c>
       <c r="AJ3">
-        <v>0.08298057571185141</v>
+        <v>-0.08030310213498942</v>
       </c>
       <c r="AK3">
-        <v>0.09826742134079962</v>
+        <v>-0.08579412112309841</v>
       </c>
       <c r="AL3">
-        <v>995.1</v>
+        <v>829.3</v>
       </c>
       <c r="AM3">
-        <v>995.1</v>
+        <v>829.3</v>
       </c>
       <c r="AN3">
-        <v>5.035483998575893</v>
+        <v>3.246236395076798</v>
       </c>
       <c r="AO3">
-        <v>2.399859310622048</v>
+        <v>4.629205353912939</v>
       </c>
       <c r="AP3">
-        <v>0.5225936184198159</v>
+        <v>-0.2584426813142099</v>
       </c>
       <c r="AQ3">
-        <v>2.399859310622048</v>
+        <v>4.629205353912939</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +862,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0358</v>
+        <v>-0.0593</v>
       </c>
       <c r="E4">
-        <v>-0.0564</v>
+        <v>-0.0788</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -871,34 +874,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01969913290509521</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0165524442791172</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>76.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="L4">
-        <v>0.4134408602150538</v>
+        <v>0.3848720800889878</v>
       </c>
       <c r="M4">
-        <v>58.5</v>
+        <v>49.4</v>
       </c>
       <c r="N4">
-        <v>0.06552419354838709</v>
+        <v>0.04402459673825863</v>
       </c>
       <c r="O4">
-        <v>0.7607282184655396</v>
+        <v>0.7138728323699421</v>
       </c>
       <c r="P4">
-        <v>58.5</v>
+        <v>49.4</v>
       </c>
       <c r="Q4">
-        <v>0.06552419354838709</v>
+        <v>0.04402459673825863</v>
       </c>
       <c r="R4">
-        <v>0.7607282184655396</v>
+        <v>0.7138728323699421</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,67 +910,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>183.3</v>
+        <v>197.8</v>
       </c>
       <c r="V4">
-        <v>0.2053091397849462</v>
+        <v>0.1762766241867927</v>
       </c>
       <c r="W4">
-        <v>0.07205096973671883</v>
+        <v>0.06466081106335264</v>
       </c>
       <c r="X4">
-        <v>0.05324609067089627</v>
+        <v>0.04449523513016622</v>
       </c>
       <c r="Y4">
-        <v>0.01880487906582257</v>
+        <v>0.02016557593318642</v>
       </c>
       <c r="Z4">
-        <v>0.1398307199562995</v>
+        <v>0.1310228233305157</v>
       </c>
       <c r="AA4">
-        <v>0.002314540200585489</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04349377556037078</v>
+        <v>0.03643096596837915</v>
       </c>
       <c r="AC4">
-        <v>-0.04117923535978529</v>
+        <v>-0.03643096596837915</v>
       </c>
       <c r="AD4">
-        <v>489.8</v>
+        <v>538.7</v>
       </c>
       <c r="AE4">
-        <v>25.67980639826146</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>515.4798063982614</v>
+        <v>538.7</v>
       </c>
       <c r="AG4">
-        <v>332.1798063982614</v>
+        <v>340.9</v>
       </c>
       <c r="AH4">
-        <v>0.3660350763081834</v>
+        <v>0.324361753371869</v>
       </c>
       <c r="AI4">
-        <v>0.3250844239286433</v>
+        <v>0.3153427383948956</v>
       </c>
       <c r="AJ4">
-        <v>0.2711716590455077</v>
+        <v>0.2330143540669857</v>
       </c>
       <c r="AK4">
-        <v>0.2368686463415359</v>
+        <v>0.2256868586560742</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>55.65909090909091</v>
-      </c>
-      <c r="AP4">
-        <v>37.7477052725297</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Far Eastern International Bank Ltd. (TSEC:2845)</t>
+          <t>Taichung Commercial Bank Co., Ltd. (TSEC:2812)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,10 +984,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0207</v>
+        <v>0.0404</v>
       </c>
       <c r="E5">
-        <v>0.0292</v>
+        <v>0.0355</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,34 +996,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01771360446311104</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01487845846833129</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>122.9</v>
+        <v>142.2</v>
       </c>
       <c r="L5">
-        <v>0.334512792596625</v>
+        <v>0.3735224586288416</v>
       </c>
       <c r="M5">
-        <v>92.3</v>
+        <v>39.2</v>
       </c>
       <c r="N5">
-        <v>0.06885490488623648</v>
+        <v>0.02406679764243615</v>
       </c>
       <c r="O5">
-        <v>0.7510170870626525</v>
+        <v>0.2756680731364276</v>
       </c>
       <c r="P5">
-        <v>92.3</v>
+        <v>39.2</v>
       </c>
       <c r="Q5">
-        <v>0.06885490488623648</v>
+        <v>0.02406679764243615</v>
       </c>
       <c r="R5">
-        <v>0.7510170870626525</v>
+        <v>0.2756680731364276</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,67 +1032,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>332.3</v>
+        <v>410.3</v>
       </c>
       <c r="V5">
-        <v>0.2478925773964938</v>
+        <v>0.2519032416502947</v>
       </c>
       <c r="W5">
-        <v>0.08510490963229694</v>
+        <v>0.08785912882298423</v>
       </c>
       <c r="X5">
-        <v>0.07008695466191066</v>
+        <v>0.04874598503713538</v>
       </c>
       <c r="Y5">
-        <v>0.01501795497038629</v>
+        <v>0.03911314378584885</v>
       </c>
       <c r="Z5">
-        <v>0.1530093718798367</v>
+        <v>0.144401456531634</v>
       </c>
       <c r="AA5">
-        <v>0.002276543584779609</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04412776982961246</v>
+        <v>0.03686957374587716</v>
       </c>
       <c r="AC5">
-        <v>-0.04185122624483285</v>
+        <v>-0.03686957374587716</v>
       </c>
       <c r="AD5">
-        <v>1957.2</v>
+        <v>1122.3</v>
       </c>
       <c r="AE5">
-        <v>28.46010860126502</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1985.660108601265</v>
+        <v>1122.3</v>
       </c>
       <c r="AG5">
-        <v>1653.360108601265</v>
+        <v>712</v>
       </c>
       <c r="AH5">
-        <v>0.5969827199437749</v>
+        <v>0.4079459125440733</v>
       </c>
       <c r="AI5">
-        <v>0.5689798578766291</v>
+        <v>0.3772817426967425</v>
       </c>
       <c r="AJ5">
-        <v>0.5522502884657884</v>
+        <v>0.3041695146958305</v>
       </c>
       <c r="AK5">
-        <v>0.523619520052041</v>
+        <v>0.2776477928560287</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>160.4262295081967</v>
-      </c>
-      <c r="AP5">
-        <v>135.5213203771529</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Taichung Commercial Bank Co., Ltd. (TSEC:2812)</t>
+          <t>Hua Nan Financial Holdings Co., Ltd. (TSEC:2880)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,10 +1106,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0633</v>
+        <v>-0.0125</v>
       </c>
       <c r="E6">
-        <v>0.0263</v>
+        <v>-0.107</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,34 +1118,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01022277943082081</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008427651804336566</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>133.8</v>
+        <v>273</v>
       </c>
       <c r="L6">
-        <v>0.3631921824104235</v>
+        <v>0.217929272770815</v>
       </c>
       <c r="M6">
-        <v>28.8</v>
+        <v>235.1</v>
       </c>
       <c r="N6">
-        <v>0.01935874168179069</v>
+        <v>0.02815299133017196</v>
       </c>
       <c r="O6">
-        <v>0.2152466367713004</v>
+        <v>0.8611721611721611</v>
       </c>
       <c r="P6">
-        <v>28.8</v>
+        <v>235.1</v>
       </c>
       <c r="Q6">
-        <v>0.01935874168179069</v>
+        <v>0.02815299133017196</v>
       </c>
       <c r="R6">
-        <v>0.2152466367713004</v>
+        <v>0.8611721611721611</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,67 +1154,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>360.1</v>
+        <v>1225.8</v>
       </c>
       <c r="V6">
-        <v>0.2420514888754453</v>
+        <v>0.1467883316568473</v>
       </c>
       <c r="W6">
-        <v>0.08984689766317486</v>
+        <v>0.04573477182872077</v>
       </c>
       <c r="X6">
-        <v>0.05992560184499425</v>
+        <v>0.05889806621139212</v>
       </c>
       <c r="Y6">
-        <v>0.02992129581818061</v>
+        <v>-0.01316329438267136</v>
       </c>
       <c r="Z6">
-        <v>0.1418713034261489</v>
+        <v>0.09616262976044167</v>
       </c>
       <c r="AA6">
-        <v>0.001195641946302964</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04381607673657521</v>
+        <v>0.03757815371685974</v>
       </c>
       <c r="AC6">
-        <v>-0.04262043479027225</v>
+        <v>-0.03757815371685974</v>
       </c>
       <c r="AD6">
-        <v>1378</v>
+        <v>9921.4</v>
       </c>
       <c r="AE6">
-        <v>14.31964028842807</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1392.319640288428</v>
+        <v>9921.4</v>
       </c>
       <c r="AG6">
-        <v>1032.219640288428</v>
+        <v>8695.6</v>
       </c>
       <c r="AH6">
-        <v>0.4834410226969806</v>
+        <v>0.5429778570724927</v>
       </c>
       <c r="AI6">
-        <v>0.4624387398227042</v>
+        <v>0.6082270720941638</v>
       </c>
       <c r="AJ6">
-        <v>0.4096240307767436</v>
+        <v>0.510113572367186</v>
       </c>
       <c r="AK6">
-        <v>0.3894110959905631</v>
+        <v>0.5763943206374037</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>207.843137254902</v>
-      </c>
-      <c r="AP6">
-        <v>155.6892368459167</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hua Nan Financial Holdings Co., Ltd. (TSEC:2880)</t>
+          <t>King's Town Bank (TSEC:2809)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1243,10 +1228,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0493</v>
+        <v>0.0328</v>
       </c>
       <c r="E7">
-        <v>0.0527</v>
+        <v>0.0457</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1255,103 +1240,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0009944656484068648</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0008471189049211666</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>508.8</v>
+        <v>174.7</v>
       </c>
       <c r="L7">
-        <v>0.3514783089251174</v>
+        <v>0.6511367871785314</v>
       </c>
       <c r="M7">
-        <v>201.9</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="N7">
-        <v>0.02255361930294906</v>
+        <v>0.04590779590779591</v>
       </c>
       <c r="O7">
-        <v>0.3968160377358491</v>
+        <v>0.4058385804235833</v>
       </c>
       <c r="P7">
-        <v>201.9</v>
+        <v>57.9</v>
       </c>
       <c r="Q7">
-        <v>0.02255361930294906</v>
+        <v>0.03749028749028749</v>
       </c>
       <c r="R7">
-        <v>0.3968160377358491</v>
+        <v>0.3314253005151689</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>13.00000000000001</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.1833568406205925</v>
       </c>
       <c r="U7">
-        <v>3495</v>
+        <v>297.3</v>
       </c>
       <c r="V7">
-        <v>0.3904155495978552</v>
+        <v>0.1925019425019425</v>
       </c>
       <c r="W7">
-        <v>0.08990987807033045</v>
+        <v>0.1387939938031302</v>
       </c>
       <c r="X7">
-        <v>0.05171835904536547</v>
+        <v>0.06089276329147958</v>
       </c>
       <c r="Y7">
-        <v>0.03819151902496498</v>
+        <v>0.07790123051165063</v>
       </c>
       <c r="Z7">
-        <v>0.1168175648933847</v>
+        <v>0.09651773508885533</v>
       </c>
       <c r="AA7">
-        <v>9.895836764804132e-05</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.043398343547235</v>
+        <v>0.0376810141465295</v>
       </c>
       <c r="AC7">
-        <v>-0.04329938517958696</v>
+        <v>-0.0376810141465295</v>
       </c>
       <c r="AD7">
-        <v>4430.4</v>
+        <v>1986.3</v>
       </c>
       <c r="AE7">
-        <v>4.202057636831112</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>4434.602057636831</v>
+        <v>1986.3</v>
       </c>
       <c r="AG7">
-        <v>939.602057636831</v>
+        <v>1689</v>
       </c>
       <c r="AH7">
-        <v>0.3312716728668994</v>
+        <v>0.5625796584246751</v>
       </c>
       <c r="AI7">
-        <v>0.4262482151303182</v>
+        <v>0.5733791351538595</v>
       </c>
       <c r="AJ7">
-        <v>0.09498987647925133</v>
+        <v>0.5223603637038411</v>
       </c>
       <c r="AK7">
-        <v>0.1360007205009176</v>
+        <v>0.533329123117244</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1943.157894736842</v>
-      </c>
-      <c r="AP7">
-        <v>412.1061656301891</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1341,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chang Hwa Commercial Bank, Ltd. (TSEC:2801)</t>
+          <t>Mega Financial Holding Co., Ltd. (TSEC:2886)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,10 +1350,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0234</v>
+        <v>0.00461</v>
       </c>
       <c r="E8">
-        <v>0.0139</v>
+        <v>-0.0225</v>
+      </c>
+      <c r="F8">
+        <v>-0.0349</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1383,34 +1365,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008821300314661756</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007451348206375325</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>375.3</v>
+        <v>868.9</v>
       </c>
       <c r="L8">
-        <v>0.3825298134746713</v>
+        <v>0.4220214677740541</v>
       </c>
       <c r="M8">
-        <v>201.6</v>
+        <v>716.2</v>
       </c>
       <c r="N8">
-        <v>0.02660683647881747</v>
+        <v>0.04964578336637507</v>
       </c>
       <c r="O8">
-        <v>0.5371702637889688</v>
+        <v>0.8242605593278859</v>
       </c>
       <c r="P8">
-        <v>201.6</v>
+        <v>716.2</v>
       </c>
       <c r="Q8">
-        <v>0.02660683647881747</v>
+        <v>0.04964578336637507</v>
       </c>
       <c r="R8">
-        <v>0.5371702637889688</v>
+        <v>0.8242605593278859</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1419,67 +1401,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4124.8</v>
+        <v>4574.8</v>
       </c>
       <c r="V8">
-        <v>0.5443843209713607</v>
+        <v>0.3171174668311821</v>
       </c>
       <c r="W8">
-        <v>0.07401928879947932</v>
+        <v>0.08460976678514046</v>
       </c>
       <c r="X8">
-        <v>0.05662945535588994</v>
+        <v>0.06094892061552741</v>
       </c>
       <c r="Y8">
-        <v>0.01738983344358938</v>
+        <v>0.02366084616961305</v>
       </c>
       <c r="Z8">
-        <v>0.1598578635628821</v>
+        <v>0.0853037566135374</v>
       </c>
       <c r="AA8">
-        <v>0.001191156604934273</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0447670084295235</v>
+        <v>0.03768378246101223</v>
       </c>
       <c r="AC8">
-        <v>-0.04357585182458923</v>
+        <v>-0.03768378246101223</v>
       </c>
       <c r="AD8">
-        <v>5692.5</v>
+        <v>18593.8</v>
       </c>
       <c r="AE8">
-        <v>58.22711130642676</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>5750.727111306427</v>
+        <v>18593.8</v>
       </c>
       <c r="AG8">
-        <v>1625.927111306427</v>
+        <v>14019</v>
       </c>
       <c r="AH8">
-        <v>0.4314859588044733</v>
+        <v>0.563107207752877</v>
       </c>
       <c r="AI8">
-        <v>0.527714207451763</v>
+        <v>0.6272598160099045</v>
       </c>
       <c r="AJ8">
-        <v>0.1766749960791131</v>
+        <v>0.4928423776243444</v>
       </c>
       <c r="AK8">
-        <v>0.2400733252524793</v>
+        <v>0.55923663939429</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>280.4187192118226</v>
-      </c>
-      <c r="AP8">
-        <v>80.09493159144959</v>
       </c>
     </row>
     <row r="9">
@@ -1490,7 +1466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mega Financial Holding Co., Ltd. (TSEC:2886)</t>
+          <t>Union Bank of Taiwan (TSEC:2838)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1499,10 +1475,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0186</v>
+        <v>0.039</v>
       </c>
       <c r="E9">
-        <v>-0.00141</v>
+        <v>0.0232</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1511,34 +1487,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002889198885519361</v>
+        <v>0.07948361526306194</v>
       </c>
       <c r="J9">
-        <v>0.002521977804743992</v>
+        <v>0.06856715733903339</v>
       </c>
       <c r="K9">
-        <v>898.9</v>
+        <v>116.1</v>
       </c>
       <c r="L9">
-        <v>0.4488440605183003</v>
+        <v>0.2428870292887029</v>
       </c>
       <c r="M9">
-        <v>667.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="N9">
-        <v>0.04797573178446143</v>
+        <v>0.008414294162372223</v>
       </c>
       <c r="O9">
-        <v>0.7424630103459784</v>
+        <v>0.08578811369509046</v>
       </c>
       <c r="P9">
-        <v>667.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.04797573178446143</v>
+        <v>0.008414294162372223</v>
       </c>
       <c r="R9">
-        <v>0.7424630103459784</v>
+        <v>0.08578811369509046</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1547,55 +1523,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3516.6</v>
+        <v>328.6</v>
       </c>
       <c r="V9">
-        <v>0.2527891195583414</v>
+        <v>0.2776041226662161</v>
       </c>
       <c r="W9">
-        <v>0.08837524824507934</v>
+        <v>0.06808585503166784</v>
       </c>
       <c r="X9">
-        <v>0.06586730545614708</v>
+        <v>0.0971611523862829</v>
       </c>
       <c r="Y9">
-        <v>0.02250794278893226</v>
+        <v>-0.02907529735461506</v>
       </c>
       <c r="Z9">
-        <v>0.08430089376177502</v>
+        <v>0.1121556509577076</v>
       </c>
       <c r="AA9">
-        <v>0.0002126049829872779</v>
+        <v>0.007690194165678848</v>
       </c>
       <c r="AB9">
-        <v>0.04401664167007072</v>
+        <v>0.04544470320164318</v>
       </c>
       <c r="AC9">
-        <v>-0.04380403668708344</v>
+        <v>-0.03775450903596433</v>
       </c>
       <c r="AD9">
-        <v>17383.2</v>
+        <v>3516.2</v>
       </c>
       <c r="AE9">
-        <v>72.56900695985188</v>
+        <v>116.5341595212819</v>
       </c>
       <c r="AF9">
-        <v>17455.76900695985</v>
+        <v>3632.734159521282</v>
       </c>
       <c r="AG9">
-        <v>13939.16900695985</v>
+        <v>3304.134159521282</v>
       </c>
       <c r="AH9">
-        <v>0.5565016180902491</v>
+        <v>0.7542372716421289</v>
       </c>
       <c r="AI9">
-        <v>0.6295887396829994</v>
+        <v>0.6455285843756314</v>
       </c>
       <c r="AJ9">
-        <v>0.5005021299170733</v>
+        <v>0.7362424818018976</v>
       </c>
       <c r="AK9">
-        <v>0.5757829432826388</v>
+        <v>0.6235469360539828</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1604,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>856.3152709359606</v>
+        <v>57.3605220228385</v>
       </c>
       <c r="AP9">
-        <v>686.6585717714213</v>
+        <v>53.90104664798177</v>
       </c>
     </row>
     <row r="10">
@@ -1618,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E.SUN Financial Holding Company, Ltd. (TSEC:2884)</t>
+          <t>Far Eastern International Bank Ltd. (TSEC:2845)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1627,10 +1603,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.113</v>
+        <v>-0.0187</v>
       </c>
       <c r="E10">
-        <v>0.137</v>
+        <v>-0.05139999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1639,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0103954904552993</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.009152630473663347</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>628.4</v>
+        <v>101.7</v>
       </c>
       <c r="L10">
-        <v>0.3859002702038811</v>
+        <v>0.2890847072200114</v>
       </c>
       <c r="M10">
-        <v>247.4</v>
+        <v>54.2</v>
       </c>
       <c r="N10">
-        <v>0.0228296175992913</v>
+        <v>0.0406998573252234</v>
       </c>
       <c r="O10">
-        <v>0.3936982813494589</v>
+        <v>0.5329400196656834</v>
       </c>
       <c r="P10">
-        <v>247.4</v>
+        <v>54.2</v>
       </c>
       <c r="Q10">
-        <v>0.0228296175992913</v>
+        <v>0.0406998573252234</v>
       </c>
       <c r="R10">
-        <v>0.3936982813494589</v>
+        <v>0.5329400196656834</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1675,67 +1651,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1075</v>
+        <v>734.8</v>
       </c>
       <c r="V10">
-        <v>0.0991990255425956</v>
+        <v>0.5517759255087482</v>
       </c>
       <c r="W10">
-        <v>0.1222924978106451</v>
+        <v>0.06761069006781013</v>
       </c>
       <c r="X10">
-        <v>0.05412491848476345</v>
+        <v>0.06325382749621719</v>
       </c>
       <c r="Y10">
-        <v>0.06816757932588167</v>
+        <v>0.004356862571592943</v>
       </c>
       <c r="Z10">
-        <v>0.1671463602167367</v>
+        <v>0.1123495034011433</v>
       </c>
       <c r="AA10">
-        <v>0.001529828870081615</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04557416538667185</v>
+        <v>0.03779191479780117</v>
       </c>
       <c r="AC10">
-        <v>-0.04404433651659023</v>
+        <v>-0.03779191479780117</v>
       </c>
       <c r="AD10">
-        <v>6668.7</v>
+        <v>1867.3</v>
       </c>
       <c r="AE10">
-        <v>99.35991671295309</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>6768.059916712953</v>
+        <v>1867.3</v>
       </c>
       <c r="AG10">
-        <v>5693.059916712953</v>
+        <v>1132.5</v>
       </c>
       <c r="AH10">
-        <v>0.3844427021136238</v>
+        <v>0.5837136605189122</v>
       </c>
       <c r="AI10">
-        <v>0.5542520090536006</v>
+        <v>0.527545485365578</v>
       </c>
       <c r="AJ10">
-        <v>0.3444106571621236</v>
+        <v>0.4595812028244461</v>
       </c>
       <c r="AK10">
-        <v>0.5112228954407263</v>
+        <v>0.4037721049629207</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>181.2146739130435</v>
-      </c>
-      <c r="AP10">
-        <v>154.7027151280694</v>
       </c>
     </row>
     <row r="11">
@@ -1746,7 +1716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>King's Town Bank (TSEC:2809)</t>
+          <t>Chang Hwa Commercial Bank, Ltd. (TSEC:2801)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1755,10 +1725,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.146</v>
+        <v>-0.0182</v>
       </c>
       <c r="E11">
-        <v>-0.248</v>
+        <v>-0.0557</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1773,85 +1743,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>284.7</v>
       </c>
       <c r="L11">
-        <v>0.3666361136571952</v>
+        <v>0.3192419825072886</v>
       </c>
       <c r="M11">
-        <v>75.3</v>
+        <v>137.9</v>
       </c>
       <c r="N11">
-        <v>0.05960107646034509</v>
+        <v>0.02078278299398671</v>
       </c>
       <c r="O11">
-        <v>1.8825</v>
+        <v>0.4843695117667721</v>
       </c>
       <c r="P11">
-        <v>55.1</v>
+        <v>137.9</v>
       </c>
       <c r="Q11">
-        <v>0.04361247427576381</v>
+        <v>0.02078278299398671</v>
       </c>
       <c r="R11">
-        <v>1.3775</v>
+        <v>0.4843695117667721</v>
       </c>
       <c r="S11">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.2682602921646746</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>137.4</v>
+        <v>4374.4</v>
       </c>
       <c r="V11">
-        <v>0.1087541554535381</v>
+        <v>0.6592618268955435</v>
       </c>
       <c r="W11">
-        <v>0.03241491085899514</v>
+        <v>0.05531699924223289</v>
       </c>
       <c r="X11">
-        <v>0.0669465690604787</v>
+        <v>0.0534409268023775</v>
       </c>
       <c r="Y11">
-        <v>-0.03453165820148357</v>
+        <v>0.001876072439855388</v>
       </c>
       <c r="Z11">
-        <v>0.0361809378523579</v>
+        <v>0.1328190158465388</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04404713656644936</v>
+        <v>0.03855905472036368</v>
       </c>
       <c r="AC11">
-        <v>-0.04404713656644936</v>
+        <v>-0.03855905472036368</v>
       </c>
       <c r="AD11">
-        <v>1658.5</v>
+        <v>6103.3</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1658.5</v>
+        <v>6103.3</v>
       </c>
       <c r="AG11">
-        <v>1521.1</v>
+        <v>1728.900000000001</v>
       </c>
       <c r="AH11">
-        <v>0.5676101167048838</v>
+        <v>0.4791185844598307</v>
       </c>
       <c r="AI11">
-        <v>0.5685246126422597</v>
+        <v>0.5193016191748419</v>
       </c>
       <c r="AJ11">
-        <v>0.5462740168791524</v>
+        <v>0.2067023744052032</v>
       </c>
       <c r="AK11">
-        <v>0.547197640117994</v>
+        <v>0.2343159178694857</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1868,7 +1838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O-Bank Co., Ltd. (TSEC:2897)</t>
+          <t>The Shanghai Commercial &amp; Savings Bank, Ltd. (TSEC:5876)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1877,10 +1847,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0338</v>
+        <v>0.0418</v>
       </c>
       <c r="E12">
-        <v>-0.0519</v>
+        <v>0.0298</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1889,100 +1859,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.008061726204237889</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.006093564902776826</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>41.1</v>
+        <v>472.2</v>
       </c>
       <c r="L12">
-        <v>0.1683046683046683</v>
+        <v>0.3660181381288272</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>316.9</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.04845639841587792</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.6711139347734011</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>316.9</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.04845639841587792</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.6711139347734011</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>763.5</v>
+        <v>3241.7</v>
       </c>
       <c r="V12">
-        <v>1.211904761904762</v>
+        <v>0.4956803620850472</v>
       </c>
       <c r="W12">
-        <v>0.04321312164861739</v>
+        <v>0.1018880138094724</v>
       </c>
       <c r="X12">
-        <v>0.270722239156239</v>
+        <v>0.05466915601227963</v>
       </c>
       <c r="Y12">
-        <v>-0.2275091175076216</v>
+        <v>0.0472188577971928</v>
       </c>
       <c r="Z12">
-        <v>0.02781588371500496</v>
+        <v>0.1451525615191007</v>
       </c>
       <c r="AA12">
-        <v>0.0001694978927454757</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04502694482537146</v>
+        <v>0.03934599104836589</v>
       </c>
       <c r="AC12">
-        <v>-0.04485744693262599</v>
+        <v>-0.03934599104836589</v>
       </c>
       <c r="AD12">
-        <v>7700.8</v>
+        <v>6410.4</v>
       </c>
       <c r="AE12">
-        <v>16.75663230462554</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>7717.556632304626</v>
+        <v>6410.4</v>
       </c>
       <c r="AG12">
-        <v>6954.056632304626</v>
+        <v>3168.7</v>
       </c>
       <c r="AH12">
-        <v>0.9245288139092185</v>
+        <v>0.4950001158274326</v>
       </c>
       <c r="AI12">
-        <v>0.8252520821216803</v>
+        <v>0.4777107086966242</v>
       </c>
       <c r="AJ12">
-        <v>0.9169310000512804</v>
+        <v>0.3263807346064315</v>
       </c>
       <c r="AK12">
-        <v>0.8097169111303711</v>
+        <v>0.3113497686026746</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>1447.518796992481</v>
-      </c>
-      <c r="AP12">
-        <v>1307.153502312899</v>
       </c>
     </row>
     <row r="13">
@@ -1993,7 +1960,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Shanghai Commercial &amp; Savings Bank, Ltd. (TSEC:5876)</t>
+          <t>O-Bank Co., Ltd. (TSEC:2897)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2002,10 +1969,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.07530000000000001</v>
+        <v>0.00575</v>
       </c>
       <c r="E13">
-        <v>0.06709999999999999</v>
+        <v>-0.123</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2020,85 +1987,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>476.5</v>
+        <v>32.7</v>
       </c>
       <c r="L13">
-        <v>0.3693225856456363</v>
+        <v>0.1352357320099256</v>
       </c>
       <c r="M13">
-        <v>263.7</v>
+        <v>34.62</v>
       </c>
       <c r="N13">
-        <v>0.03393647688664676</v>
+        <v>0.05145659928656361</v>
       </c>
       <c r="O13">
-        <v>0.5534102833158446</v>
+        <v>1.058715596330275</v>
       </c>
       <c r="P13">
-        <v>263.7</v>
+        <v>33.3</v>
       </c>
       <c r="Q13">
-        <v>0.03393647688664676</v>
+        <v>0.04949464922711058</v>
       </c>
       <c r="R13">
-        <v>0.5534102833158446</v>
+        <v>1.018348623853211</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.03812824956672445</v>
       </c>
       <c r="U13">
-        <v>1587.7</v>
+        <v>624.5</v>
       </c>
       <c r="V13">
-        <v>0.2043266755894163</v>
+        <v>0.9282104637336505</v>
       </c>
       <c r="W13">
-        <v>0.1139815811505801</v>
+        <v>0.03340484216978241</v>
       </c>
       <c r="X13">
-        <v>0.05650138847629375</v>
+        <v>0.2999814054600852</v>
       </c>
       <c r="Y13">
-        <v>0.05748019267428632</v>
+        <v>-0.2665765632903028</v>
       </c>
       <c r="Z13">
-        <v>0.1983397386625672</v>
+        <v>0.030318988865483</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04535000943818432</v>
+        <v>0.03960259522563417</v>
       </c>
       <c r="AC13">
-        <v>-0.04535000943818432</v>
+        <v>-0.03960259522563417</v>
       </c>
       <c r="AD13">
-        <v>5844.1</v>
+        <v>8772.6</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>5844.1</v>
+        <v>8772.6</v>
       </c>
       <c r="AG13">
-        <v>4256.400000000001</v>
+        <v>8148.1</v>
       </c>
       <c r="AH13">
-        <v>0.4292555731022072</v>
+        <v>0.9287695597857158</v>
       </c>
       <c r="AI13">
-        <v>0.4828956718613145</v>
+        <v>0.8323939652718475</v>
       </c>
       <c r="AJ13">
-        <v>0.3539096018891144</v>
+        <v>0.923726603861284</v>
       </c>
       <c r="AK13">
-        <v>0.4048124019211565</v>
+        <v>0.8218367038176408</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2115,7 +2082,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Taiwan Business Bank,Ltd. (TSEC:2834)</t>
+          <t>E.SUN Financial Holding Company, Ltd. (TSEC:2884)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2124,10 +2091,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0549</v>
+        <v>0.0964</v>
       </c>
       <c r="E14">
-        <v>0.0567</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2136,34 +2103,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00808821185343739</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.006668503873336581</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>226.5</v>
+        <v>630.1</v>
       </c>
       <c r="L14">
-        <v>0.3281182094741417</v>
+        <v>0.3392011197243756</v>
       </c>
       <c r="M14">
-        <v>114.8</v>
+        <v>317.5</v>
       </c>
       <c r="N14">
-        <v>0.03821698458670395</v>
+        <v>0.02777899295682226</v>
       </c>
       <c r="O14">
-        <v>0.5068432671081677</v>
+        <v>0.5038882717029043</v>
       </c>
       <c r="P14">
-        <v>114.8</v>
+        <v>317.5</v>
       </c>
       <c r="Q14">
-        <v>0.03821698458670395</v>
+        <v>0.02777899295682226</v>
       </c>
       <c r="R14">
-        <v>0.5068432671081677</v>
+        <v>0.5038882717029043</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2172,67 +2139,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1255.6</v>
+        <v>1448</v>
       </c>
       <c r="V14">
-        <v>0.4179899464030094</v>
+        <v>0.12668970646135</v>
       </c>
       <c r="W14">
-        <v>0.08260695138407673</v>
+        <v>0.1158421120364753</v>
       </c>
       <c r="X14">
-        <v>0.06964322186205391</v>
+        <v>0.05096028697723065</v>
       </c>
       <c r="Y14">
-        <v>0.01296372952202282</v>
+        <v>0.06488182505924463</v>
       </c>
       <c r="Z14">
-        <v>0.160857214015575</v>
+        <v>0.170603578119834</v>
       </c>
       <c r="AA14">
-        <v>0.001072676954716993</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04644190873621411</v>
+        <v>0.03961180160188108</v>
       </c>
       <c r="AC14">
-        <v>-0.04536923178149711</v>
+        <v>-0.03961180160188108</v>
       </c>
       <c r="AD14">
-        <v>4352.5</v>
+        <v>9119.4</v>
       </c>
       <c r="AE14">
-        <v>25.58353678786085</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>4378.083536787861</v>
+        <v>9119.4</v>
       </c>
       <c r="AG14">
-        <v>3122.483536787861</v>
+        <v>7671.4</v>
       </c>
       <c r="AH14">
-        <v>0.5930768491923387</v>
+        <v>0.4437901785497033</v>
       </c>
       <c r="AI14">
-        <v>0.5906843402298279</v>
+        <v>0.5987079662285482</v>
       </c>
       <c r="AJ14">
-        <v>0.5096781025931357</v>
+        <v>0.4016250543168122</v>
       </c>
       <c r="AK14">
-        <v>0.5072026845626844</v>
+        <v>0.5565518942526735</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>406.7757009345794</v>
-      </c>
-      <c r="AP14">
-        <v>291.8208912885851</v>
       </c>
     </row>
     <row r="15">
@@ -2243,7 +2204,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SinoPac Financial Holdings Company Limited (TSEC:2890)</t>
+          <t>Taiwan Business Bank,Ltd. (TSEC:2834)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2252,10 +2213,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.0158</v>
+        <v>0.00646</v>
       </c>
       <c r="E15">
-        <v>-0.0436</v>
+        <v>-0.0152</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2264,34 +2225,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009951792979502815</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.00857813115389951</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>354.7</v>
+        <v>165.3</v>
       </c>
       <c r="L15">
-        <v>0.3302299599664836</v>
+        <v>0.2651588065447546</v>
       </c>
       <c r="M15">
-        <v>230.7</v>
+        <v>49.3</v>
       </c>
       <c r="N15">
-        <v>0.04705954347959121</v>
+        <v>0.01900759532713884</v>
       </c>
       <c r="O15">
-        <v>0.6504087961657739</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="P15">
-        <v>230.7</v>
+        <v>49.3</v>
       </c>
       <c r="Q15">
-        <v>0.04705954347959121</v>
+        <v>0.01900759532713884</v>
       </c>
       <c r="R15">
-        <v>0.6504087961657739</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2300,67 +2261,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>827</v>
+        <v>1116.5</v>
       </c>
       <c r="V15">
-        <v>0.168696326214226</v>
+        <v>0.430466129467556</v>
       </c>
       <c r="W15">
-        <v>0.07683143438894424</v>
+        <v>0.05448612301404179</v>
       </c>
       <c r="X15">
-        <v>0.06634901605928169</v>
+        <v>0.07306837503392893</v>
       </c>
       <c r="Y15">
-        <v>0.01048241832966255</v>
+        <v>-0.01858225201988714</v>
       </c>
       <c r="Z15">
-        <v>0.09569796702375009</v>
+        <v>0.1016849625654493</v>
       </c>
       <c r="AA15">
-        <v>0.0008209097122912787</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04699531933466897</v>
+        <v>0.04082287553190646</v>
       </c>
       <c r="AC15">
-        <v>-0.04617440962237769</v>
+        <v>-0.04082287553190646</v>
       </c>
       <c r="AD15">
-        <v>6197.1</v>
+        <v>4888.2</v>
       </c>
       <c r="AE15">
-        <v>81.05389580358013</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>6278.153895803581</v>
+        <v>4888.2</v>
       </c>
       <c r="AG15">
-        <v>5451.153895803581</v>
+        <v>3771.7</v>
       </c>
       <c r="AH15">
-        <v>0.5615294293338121</v>
+        <v>0.6533367192825352</v>
       </c>
       <c r="AI15">
-        <v>0.5723097094488407</v>
+        <v>0.5924731834434277</v>
       </c>
       <c r="AJ15">
-        <v>0.5265058357011683</v>
+        <v>0.5925314984132969</v>
       </c>
       <c r="AK15">
-        <v>0.5374378800880584</v>
+        <v>0.5286935800392486</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>230.3754646840149</v>
-      </c>
-      <c r="AP15">
-        <v>202.6451262380513</v>
       </c>
     </row>
     <row r="16">
@@ -2380,10 +2335,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.09480000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="E16">
-        <v>0.06610000000000001</v>
+        <v>0.0378</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2392,34 +2347,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006123307789080456</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004995997191421978</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>591.2</v>
+        <v>599.9</v>
       </c>
       <c r="L16">
-        <v>0.3234843510615015</v>
+        <v>0.3219211161792326</v>
       </c>
       <c r="M16">
-        <v>397.1</v>
+        <v>451.9</v>
       </c>
       <c r="N16">
-        <v>0.04022121159942874</v>
+        <v>0.04632543644732391</v>
       </c>
       <c r="O16">
-        <v>0.6716847090663058</v>
+        <v>0.7532922153692282</v>
       </c>
       <c r="P16">
-        <v>397.1</v>
+        <v>451.9</v>
       </c>
       <c r="Q16">
-        <v>0.04022121159942874</v>
+        <v>0.04632543644732391</v>
       </c>
       <c r="R16">
-        <v>0.6716847090663058</v>
+        <v>0.7532922153692282</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2428,67 +2383,61 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1466.9</v>
+        <v>1598.6</v>
       </c>
       <c r="V16">
-        <v>0.1485784318690557</v>
+        <v>0.1638766158545961</v>
       </c>
       <c r="W16">
-        <v>0.08858388648316577</v>
+        <v>0.08640855011090945</v>
       </c>
       <c r="X16">
-        <v>0.06737440731754774</v>
+        <v>0.06618958429432467</v>
       </c>
       <c r="Y16">
-        <v>0.02120947916561804</v>
+        <v>0.02021896581658478</v>
       </c>
       <c r="Z16">
-        <v>0.1136514493416893</v>
+        <v>0.1002997960095375</v>
       </c>
       <c r="AA16">
-        <v>0.0005678023217121171</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04707823374716738</v>
+        <v>0.04141091718951188</v>
       </c>
       <c r="AC16">
-        <v>-0.04651043142545527</v>
+        <v>-0.04141091718951188</v>
       </c>
       <c r="AD16">
-        <v>13103.6</v>
+        <v>15086</v>
       </c>
       <c r="AE16">
-        <v>83.54521342338279</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>13187.14521342338</v>
+        <v>15086</v>
       </c>
       <c r="AG16">
-        <v>11720.24521342338</v>
+        <v>13487.4</v>
       </c>
       <c r="AH16">
-        <v>0.5718612037129516</v>
+        <v>0.6073048883091997</v>
       </c>
       <c r="AI16">
-        <v>0.6551074081469062</v>
+        <v>0.6687827497849929</v>
       </c>
       <c r="AJ16">
-        <v>0.5427761957594528</v>
+        <v>0.5802954096625549</v>
       </c>
       <c r="AK16">
-        <v>0.6279988436593534</v>
+        <v>0.6435196671565167</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>469.663082437276</v>
-      </c>
-      <c r="AP16">
-        <v>420.0804735994044</v>
       </c>
     </row>
     <row r="17">
@@ -2508,10 +2457,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0922</v>
+        <v>0.0509</v>
       </c>
       <c r="E17">
-        <v>0.107</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2520,34 +2469,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005635677767123027</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.004900231423223187</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>523.7</v>
+        <v>562.6</v>
       </c>
       <c r="L17">
-        <v>0.378068149003754</v>
+        <v>0.3671604777132416</v>
       </c>
       <c r="M17">
-        <v>303.4</v>
+        <v>380</v>
       </c>
       <c r="N17">
-        <v>0.03378769655663949</v>
+        <v>0.03934154674396936</v>
       </c>
       <c r="O17">
-        <v>0.5793393164025205</v>
+        <v>0.67543547813722</v>
       </c>
       <c r="P17">
-        <v>303.4</v>
+        <v>380</v>
       </c>
       <c r="Q17">
-        <v>0.03378769655663949</v>
+        <v>0.03934154674396936</v>
       </c>
       <c r="R17">
-        <v>0.5793393164025205</v>
+        <v>0.67543547813722</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2556,67 +2505,61 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1564.6</v>
+        <v>1932.6</v>
       </c>
       <c r="V17">
-        <v>0.1742393870551027</v>
+        <v>0.2000828243089347</v>
       </c>
       <c r="W17">
-        <v>0.07718269174084774</v>
+        <v>0.08051635801585712</v>
       </c>
       <c r="X17">
-        <v>0.07036464343894538</v>
+        <v>0.06664136968727329</v>
       </c>
       <c r="Y17">
-        <v>0.006818048301902357</v>
+        <v>0.01387498832858383</v>
       </c>
       <c r="Z17">
-        <v>0.08150648223627693</v>
+        <v>0.08193898558862062</v>
       </c>
       <c r="AA17">
-        <v>0.0003994006254505868</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.04729915027445817</v>
+        <v>0.04144827291105894</v>
       </c>
       <c r="AC17">
-        <v>-0.04689974964900758</v>
+        <v>-0.04144827291105894</v>
       </c>
       <c r="AD17">
-        <v>13379.7</v>
+        <v>15152.2</v>
       </c>
       <c r="AE17">
-        <v>55.46729578490591</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>13435.16729578491</v>
+        <v>15152.2</v>
       </c>
       <c r="AG17">
-        <v>11870.56729578491</v>
+        <v>13219.6</v>
       </c>
       <c r="AH17">
-        <v>0.5993891044459509</v>
+        <v>0.6107000064487006</v>
       </c>
       <c r="AI17">
-        <v>0.6524374952405066</v>
+        <v>0.6541157983802731</v>
       </c>
       <c r="AJ17">
-        <v>0.5693271966304401</v>
+        <v>0.5778150760973138</v>
       </c>
       <c r="AK17">
-        <v>0.6238582539444825</v>
+        <v>0.6226320896014469</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>707.9206349206351</v>
-      </c>
-      <c r="AP17">
-        <v>628.0723436923231</v>
       </c>
     </row>
     <row r="18">
@@ -2627,7 +2570,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Taishin Financial Holding Co., Ltd. (TSEC:2887)</t>
+          <t>SinoPac Financial Holdings Company Limited (TSEC:2890)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2636,10 +2579,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.08349999999999999</v>
+        <v>0.0315</v>
       </c>
       <c r="E18">
-        <v>-0.0224</v>
+        <v>0.0262</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2648,34 +2591,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004093090967437933</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0036243152718552</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>437.6</v>
+        <v>421.3</v>
       </c>
       <c r="L18">
-        <v>0.3483799060584349</v>
+        <v>0.3366091403004155</v>
       </c>
       <c r="M18">
-        <v>170.8</v>
+        <v>272.5</v>
       </c>
       <c r="N18">
-        <v>0.03075759485692676</v>
+        <v>0.05931908224128173</v>
       </c>
       <c r="O18">
-        <v>0.3903107861060329</v>
+        <v>0.6468075005934013</v>
       </c>
       <c r="P18">
-        <v>170.8</v>
+        <v>272.5</v>
       </c>
       <c r="Q18">
-        <v>0.03075759485692676</v>
+        <v>0.05931908224128173</v>
       </c>
       <c r="R18">
-        <v>0.3903107861060329</v>
+        <v>0.6468075005934013</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2684,67 +2627,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1300.3</v>
+        <v>767.9</v>
       </c>
       <c r="V18">
-        <v>0.2341574976139453</v>
+        <v>0.1671600853324045</v>
       </c>
       <c r="W18">
-        <v>0.0884433485589555</v>
+        <v>0.0897987893256032</v>
       </c>
       <c r="X18">
-        <v>0.07983308884421056</v>
+        <v>0.06728147322044745</v>
       </c>
       <c r="Y18">
-        <v>0.008610259714744939</v>
+        <v>0.02251731610515575</v>
       </c>
       <c r="Z18">
-        <v>0.08499513251563945</v>
+        <v>0.1248541074367799</v>
       </c>
       <c r="AA18">
-        <v>0.0003080491568097885</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04784297646051274</v>
+        <v>0.0415001071242039</v>
       </c>
       <c r="AC18">
-        <v>-0.04753492730370296</v>
+        <v>-0.0415001071242039</v>
       </c>
       <c r="AD18">
-        <v>11061.3</v>
+        <v>7350.9</v>
       </c>
       <c r="AE18">
-        <v>69.29334217900606</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>11130.59334217901</v>
+        <v>7350.9</v>
       </c>
       <c r="AG18">
-        <v>9830.293342179006</v>
+        <v>6583</v>
       </c>
       <c r="AH18">
-        <v>0.6671540356138717</v>
+        <v>0.6154110191130794</v>
       </c>
       <c r="AI18">
-        <v>0.6624212339810988</v>
+        <v>0.5853466261088371</v>
       </c>
       <c r="AJ18">
-        <v>0.6390198263490919</v>
+        <v>0.5889879035144228</v>
       </c>
       <c r="AK18">
-        <v>0.6341063798295623</v>
+        <v>0.5583403306107564</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>582.1736842105263</v>
-      </c>
-      <c r="AP18">
-        <v>517.3838601146845</v>
       </c>
     </row>
     <row r="19">
@@ -2755,7 +2692,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Union Bank of Taiwan (TSEC:2838)</t>
+          <t>Taishin Financial Holding Co., Ltd. (TSEC:2887)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2764,10 +2701,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.0296</v>
+        <v>0.102</v>
       </c>
       <c r="E19">
-        <v>-0.0005</v>
+        <v>1.225</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2776,100 +2713,97 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01285372585686276</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01074762550531599</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>98.7</v>
+        <v>495</v>
       </c>
       <c r="L19">
-        <v>0.2341081593927894</v>
+        <v>0.3409560545529687</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>208.2</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0.04047355222487898</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>0.4206060606060606</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>208.2</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.04047355222487898</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0.4206060606060606</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19">
-        <v>601.2</v>
+        <v>1690.6</v>
       </c>
       <c r="V19">
-        <v>0.5642421398404506</v>
+        <v>0.3286483544254583</v>
       </c>
       <c r="W19">
-        <v>0.06249604255049706</v>
+        <v>0.09148708091524045</v>
       </c>
       <c r="X19">
-        <v>0.09630690774293767</v>
+        <v>0.07826440647836413</v>
       </c>
       <c r="Y19">
-        <v>-0.03381086519244061</v>
+        <v>0.01322267443687632</v>
       </c>
       <c r="Z19">
-        <v>0.1188709175852551</v>
+        <v>0.09440329806810717</v>
       </c>
       <c r="AA19">
-        <v>0.001277580105679602</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.05106514532646149</v>
+        <v>0.04222765540796442</v>
       </c>
       <c r="AC19">
-        <v>-0.04978756522078188</v>
+        <v>-0.04222765540796442</v>
       </c>
       <c r="AD19">
-        <v>3040.9</v>
+        <v>11008.7</v>
       </c>
       <c r="AE19">
-        <v>36.90434589373331</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>3077.804345893734</v>
+        <v>11008.7</v>
       </c>
       <c r="AG19">
-        <v>2476.604345893734</v>
+        <v>9318.1</v>
       </c>
       <c r="AH19">
-        <v>0.7428381043125699</v>
+        <v>0.6815350898915359</v>
       </c>
       <c r="AI19">
-        <v>0.6349386447410686</v>
+        <v>0.6355732092443234</v>
       </c>
       <c r="AJ19">
-        <v>0.6991901152671559</v>
+        <v>0.6443072284991218</v>
       </c>
       <c r="AK19">
-        <v>0.5832513332262775</v>
+        <v>0.5961561838224475</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>237.5703125</v>
-      </c>
-      <c r="AP19">
-        <v>193.4847145229479</v>
       </c>
     </row>
   </sheetData>
